--- a/Jupyter/Python/resultados_distribuicoes.xlsx
+++ b/Jupyter/Python/resultados_distribuicoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.964035964035964</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,10 +510,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3686313686313686</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -532,10 +536,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6783216783216783</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -556,10 +562,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2097902097902098</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -580,10 +588,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.01998001998001998</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -734,11 +744,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9866516931360881</v>
+        <v>0.9439846016902848</v>
       </c>
     </row>
     <row r="13">
@@ -760,11 +770,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.03080540636693996</v>
+        <v>2.533902754286999e-09</v>
       </c>
     </row>
     <row r="14">
@@ -786,11 +796,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9912670254712532</v>
+        <v>0.8047748694897878</v>
       </c>
     </row>
     <row r="15">
@@ -812,11 +822,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9993116333010227</v>
+        <v>0.2799744858383849</v>
       </c>
     </row>
     <row r="16">
@@ -838,11 +848,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9993030631412887</v>
+        <v>0.01978916432357902</v>
       </c>
     </row>
     <row r="17">
@@ -851,7 +861,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -864,10 +874,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8115676549319092</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -875,7 +887,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -888,10 +900,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.009028726361234793</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -899,7 +913,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -912,10 +926,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8377835926003789</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -923,7 +939,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -936,10 +952,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9614231344673095</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -947,7 +965,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -960,10 +978,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9711620768806705</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -984,11 +1004,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8139505252593339</v>
+        <v>0.7932067932067932</v>
       </c>
     </row>
     <row r="23">
@@ -1010,11 +1030,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.2150848428718182</v>
+        <v>0.2247752247752248</v>
       </c>
     </row>
     <row r="24">
@@ -1036,11 +1056,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5883424229888832</v>
+        <v>0.5764235764235764</v>
       </c>
     </row>
     <row r="25">
@@ -1062,11 +1082,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6801036321043863</v>
+        <v>0.6913086913086913</v>
       </c>
     </row>
     <row r="26">
@@ -1088,11 +1108,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.04605749206810239</v>
+        <v>0.04995004995004995</v>
       </c>
     </row>
     <row r="27">
@@ -1114,11 +1134,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9839808899400977</v>
+        <v>0.8139505252593339</v>
       </c>
     </row>
     <row r="28">
@@ -1140,11 +1160,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9912222348513566</v>
+        <v>0.2150848428718182</v>
       </c>
     </row>
     <row r="29">
@@ -1166,11 +1186,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9934045609571908</v>
+        <v>0.5883424229888832</v>
       </c>
     </row>
     <row r="30">
@@ -1192,11 +1212,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9787136582714681</v>
+        <v>0.6801036321043863</v>
       </c>
     </row>
     <row r="31">
@@ -1218,20 +1238,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8224639458070229</v>
+        <v>0.04605749206810239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1244,18 +1264,20 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7867487766086071</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1268,18 +1290,20 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2219977063952527</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1292,18 +1316,20 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7200248805281038</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1316,18 +1342,20 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5914336102160453</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1340,18 +1368,20 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.06913916129627529</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1364,20 +1394,20 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8.018158390185362e-06</v>
+        <v>0.999999904815367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1390,20 +1420,20 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.002395924451698339</v>
+        <v>0.9999999400776696</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1416,20 +1446,20 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8492882988143104</v>
+        <v>0.9999999472467532</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1442,20 +1472,20 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.002261333971613433</v>
+        <v>0.9999998650458511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1468,11 +1498,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.128968733881062e-05</v>
+        <v>0.999997415220035</v>
       </c>
     </row>
     <row r="42">
@@ -1494,11 +1524,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.192216338600916</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="43">
@@ -1520,11 +1550,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.2143250032465706</v>
+        <v>0.005994005994005994</v>
       </c>
     </row>
     <row r="44">
@@ -1546,11 +1576,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6883512428841567</v>
+        <v>0.8661338661338661</v>
       </c>
     </row>
     <row r="45">
@@ -1572,11 +1602,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.3773822097707708</v>
+        <v>0.003996003996003996</v>
       </c>
     </row>
     <row r="46">
@@ -1598,11 +1628,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.01403375716860911</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="47">
@@ -1611,7 +1641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1624,10 +1654,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>8.018158390185362e-06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1635,7 +1667,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1648,10 +1680,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.002395924451698339</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1659,7 +1693,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1672,10 +1706,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8492882988143104</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1683,7 +1719,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1696,10 +1732,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.002261333971613433</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1707,7 +1745,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1720,10 +1758,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.128968733881062e-05</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1731,7 +1771,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1744,11 +1784,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.6749291354701268</v>
+        <v>2.469022573536872e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1757,7 +1797,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1770,11 +1810,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.2511056043505234</v>
+        <v>0.007390361391669265</v>
       </c>
     </row>
     <row r="54">
@@ -1783,7 +1823,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1796,11 +1836,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.5694669419866327</v>
+        <v>0.7256177280006399</v>
       </c>
     </row>
     <row r="55">
@@ -1809,7 +1849,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1822,11 +1862,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.5620173490405601</v>
+        <v>0.001670507714198965</v>
       </c>
     </row>
     <row r="56">
@@ -1835,7 +1875,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1848,11 +1888,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.2797790883673035</v>
+        <v>2.019122229790504e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1861,7 +1901,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1878,7 +1918,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9993788649692928</v>
+        <v>0.9999997242572423</v>
       </c>
     </row>
     <row r="58">
@@ -1887,7 +1927,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1904,7 +1944,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9992935948150949</v>
+        <v>0.9999997762821325</v>
       </c>
     </row>
     <row r="59">
@@ -1913,7 +1953,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1930,7 +1970,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9996063167219816</v>
+        <v>0.9999999824611631</v>
       </c>
     </row>
     <row r="60">
@@ -1939,7 +1979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1956,7 +1996,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9993086412614164</v>
+        <v>0.9999997744523867</v>
       </c>
     </row>
     <row r="61">
@@ -1965,7 +2005,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1982,16 +2022,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9995915727553639</v>
+        <v>0.9999963058323933</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2004,18 +2044,20 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.6693306693306693</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2028,18 +2070,20 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.2727272727272727</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2052,18 +2096,20 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5614385614385614</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2076,18 +2122,20 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5574425574425574</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2100,18 +2148,20 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.2757242757242757</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2128,16 +2178,16 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2.686953100104476e-09</v>
+        <v>0.6749291354701268</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2154,16 +2204,16 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2.839880926941816e-05</v>
+        <v>0.2511056043505234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2180,16 +2230,16 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.07946472635005031</v>
+        <v>0.5694669419866327</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2206,16 +2256,16 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3.888034194793275e-08</v>
+        <v>0.5620173490405601</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2232,16 +2282,16 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3.975580214652615e-08</v>
+        <v>0.2797790883673035</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -2254,20 +2304,20 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.4229522997179716</v>
+        <v>0.8650921290462341</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -2280,20 +2330,20 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.4696332230825022</v>
+        <v>0.2402297988086821</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2306,20 +2356,20 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.913652728290685</v>
+        <v>0.7800432672243738</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2332,20 +2382,20 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.7672149083538867</v>
+        <v>0.7228057059990998</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2358,16 +2408,16 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.1807961932823115</v>
+        <v>0.2278799093620539</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2384,14 +2434,16 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9999999986127469</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2408,14 +2460,16 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9999999982149702</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2432,14 +2486,16 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9999999962942266</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2456,14 +2512,16 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9999999985878492</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2480,10 +2538,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9999999591171016</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2491,7 +2551,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2504,11 +2564,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.418426705886112</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="83">
@@ -2517,7 +2577,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2530,11 +2590,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.4611843618363506</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="84">
@@ -2543,7 +2603,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2556,11 +2616,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.3935973592448382</v>
+        <v>0.06393606393606394</v>
       </c>
     </row>
     <row r="85">
@@ -2569,7 +2629,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2582,11 +2642,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.2663264000829637</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="86">
@@ -2595,7 +2655,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2608,11 +2668,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.3402014241172581</v>
+        <v>0.000999000999000999</v>
       </c>
     </row>
     <row r="87">
@@ -2621,7 +2681,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2634,11 +2694,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9999999999972409</v>
+        <v>2.686953100104476e-09</v>
       </c>
     </row>
     <row r="88">
@@ -2647,7 +2707,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2660,11 +2720,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9999999999975621</v>
+        <v>2.839880926941816e-05</v>
       </c>
     </row>
     <row r="89">
@@ -2673,7 +2733,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2686,11 +2746,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.9999999999954023</v>
+        <v>0.07946472635005031</v>
       </c>
     </row>
     <row r="90">
@@ -2699,7 +2759,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2712,11 +2772,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.9999999999972501</v>
+        <v>3.888034194793275e-08</v>
       </c>
     </row>
     <row r="91">
@@ -2725,7 +2785,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2738,16 +2798,16 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9999999999781439</v>
+        <v>3.975580214652615e-08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2764,14 +2824,16 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>9.436353815006626e-07</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2788,14 +2850,16 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.001414988969770881</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2812,14 +2876,16 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.3112203730524644</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2836,14 +2902,16 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>2.455525837552486e-06</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2860,14 +2928,16 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>3.205789006144322e-06</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2884,16 +2954,16 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.02193406580720392</v>
+        <v>0.9999999932115121</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2910,16 +2980,16 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.2118534429928751</v>
+        <v>0.9999999951613008</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2936,16 +3006,16 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.3837392715962279</v>
+        <v>0.9999999998713087</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2962,16 +3032,16 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.005408807723502607</v>
+        <v>0.9999999972521726</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2988,20 +3058,20 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>Chi-quadrado</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.02374623194195735</v>
+        <v>0.9999998770900149</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3014,20 +3084,20 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.4125874125874126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3040,20 +3110,20 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.9999999999999997</v>
+        <v>0.4775224775224775</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3066,20 +3136,20 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0.3726273726273726</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3092,20 +3162,20 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.9999999999999927</v>
+        <v>0.2577422577422577</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Com</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3118,16 +3188,16 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9999999999981323</v>
+        <v>0.3576423576423576</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3144,14 +3214,16 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.418426705886112</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3168,14 +3240,16 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.4611843618363506</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3192,14 +3266,16 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.3935973592448382</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3216,14 +3292,16 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2663264000829637</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3240,14 +3318,16 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr"/>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.3402014241172581</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3264,16 +3344,16 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.05513010712620714</v>
+        <v>0.6919528819776946</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3290,16 +3370,16 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.02343451282895681</v>
+        <v>0.692550253972589</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3316,16 +3396,16 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.3276601292201252</v>
+        <v>0.6193668030905897</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3342,16 +3422,16 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.01298580853025033</v>
+        <v>0.1263867430222068</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3368,16 +3448,16 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.07074866872011587</v>
+        <v>0.3581413941842344</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3398,12 +3478,12 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.9963802088862654</v>
+        <v>0.999999929393386</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3424,12 +3504,12 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.9999987172313123</v>
+        <v>0.9999999398224623</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3450,12 +3530,12 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.9998686735466149</v>
+        <v>0.9999998805117944</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3476,12 +3556,12 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.9999319754977102</v>
+        <v>0.9999998864142531</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3502,12 +3582,12 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.9999436954392046</v>
+        <v>0.9999996047775466</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3524,14 +3604,16 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.01898101898101898</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3548,14 +3630,16 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2317682317682318</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3572,14 +3656,16 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.3676323676323676</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3596,14 +3682,16 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.008991008991008992</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3620,14 +3708,16 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr"/>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.02097902097902098</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3648,12 +3738,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.04788182828189402</v>
+        <v>0.02193406580720392</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3674,12 +3764,12 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.02633637181646253</v>
+        <v>0.2118534429928751</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3700,12 +3790,12 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.02513613059941944</v>
+        <v>0.3837392715962279</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3726,12 +3816,12 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.105335787357129</v>
+        <v>0.005408807723502607</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3752,12 +3842,12 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.0520028602044218</v>
+        <v>0.02374623194195735</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3774,16 +3864,16 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.9970885156630396</v>
+        <v>0.004523816040784667</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3800,16 +3890,16 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.998906533680022</v>
+        <v>0.1498957763688196</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3826,16 +3916,16 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.9973572743470813</v>
+        <v>0.27563649277061</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3852,16 +3942,16 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.9937787661565045</v>
+        <v>0.04105738573228301</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3878,20 +3968,20 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>CVM</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.9308694868864551</v>
+        <v>0.02328618390033743</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3904,18 +3994,20 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9999999962186412</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3928,18 +4020,20 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9999999995432571</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3952,18 +4046,20 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9999999997534457</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3976,18 +4072,20 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9999999988158604</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Com</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -4000,14 +4098,16 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ADT</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr"/>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9999997637556922</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4024,16 +4124,16 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.02613177528701727</v>
+        <v>0.06393606393606394</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4050,16 +4150,16 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.006611154110563566</v>
+        <v>0.02697302697302697</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4076,16 +4176,16 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.01661030614477332</v>
+        <v>0.3336663336663337</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4102,16 +4202,16 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.1206597608338702</v>
+        <v>0.01198801198801199</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4128,16 +4228,16 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>KST</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.1578403481357815</v>
+        <v>0.06893106893106893</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4154,16 +4254,16 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.9999999999992796</v>
+        <v>0.05513010712620714</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4180,16 +4280,16 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.9999999999991362</v>
+        <v>0.02343451282895681</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4206,16 +4306,16 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.9999999999989293</v>
+        <v>0.3276601292201252</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4232,37 +4332,1337 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Chi-quadrado</t>
+          <t>KST</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.9999999999978858</v>
+        <v>0.01298580853025033</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.07074866872011587</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.01719372389838603</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.02332817845416735</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.244232946927977</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.058131783416845</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.06313605833678437</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9999999984254505</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9999999928096813</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>4</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9999999986789588</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>4</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9999999984216773</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>4</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9999997800481675</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
         <v>5</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" t="inlineStr">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.04795204795204795</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.02397602397602398</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.01898101898101898</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1088911088911089</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.05094905094905095</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.04788182828189402</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.02633637181646253</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.02513613059941944</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.105335787357129</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0520028602044218</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.181366247648407</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.08041604217813514</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1647101571996001</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1879167762444213</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.04407656798451709</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>5</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>Chi-quadrado</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>0.9999999999930056</v>
+      <c r="F177" t="n">
+        <v>0.999999999631983</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.9999999995448507</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>5</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.9999999995277639</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.9999999991975641</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>5</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Com</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.9999998897186982</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>5</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.02597402597402598</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>5</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.00999000999000999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>5</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.01998001998001998</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>5</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1228771228771229</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1628371628371628</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>5</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.02613177528701727</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>5</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.006611154110563566</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>5</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.01661030614477332</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>5</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.1206597608338702</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>KST</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1578403481357815</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>5</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.160849955111506</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>5</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.07037774599087132</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.115166587810306</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>5</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.1316363088752236</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>5</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>CVM</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.2278748174423753</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>5</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>weibull</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.9999999948796446</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>5</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.9999999925296841</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>5</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>lognormal</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.9999999873992668</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>5</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>exponential</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.9999999907941012</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Chi-quadrado</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.999999899229099</v>
       </c>
     </row>
   </sheetData>

--- a/Jupyter/Python/resultados_distribuicoes.xlsx
+++ b/Jupyter/Python/resultados_distribuicoes.xlsx
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.964035964035964</v>
+        <v>0.974025974025974</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3686313686313686</v>
+        <v>0.3706293706293706</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6783216783216783</v>
+        <v>0.7022977022977023</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2097902097902098</v>
+        <v>0.2427572427572428</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01698301698301698</v>
       </c>
     </row>
     <row r="7">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7932067932067932</v>
+        <v>0.8071928071928072</v>
       </c>
     </row>
     <row r="23">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.2247752247752248</v>
+        <v>0.2177822177822178</v>
       </c>
     </row>
     <row r="24">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5764235764235764</v>
+        <v>0.6183816183816184</v>
       </c>
     </row>
     <row r="25">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6913086913086913</v>
+        <v>0.6803196803196803</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.04995004995004995</v>
+        <v>0.04795204795204795</v>
       </c>
     </row>
     <row r="27">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.06913916129627529</v>
+        <v>0.06913916129627551</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.005994005994005994</v>
+        <v>0.008991008991008992</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8661338661338661</v>
+        <v>0.8551448551448552</v>
       </c>
     </row>
     <row r="45">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.469022573536872e-05</v>
+        <v>2.469022573559077e-05</v>
       </c>
     </row>
     <row r="53">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.6693306693306693</v>
+        <v>0.6883116883116883</v>
       </c>
     </row>
     <row r="63">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2407592407592408</v>
       </c>
     </row>
     <row r="64">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.5614385614385614</v>
+        <v>0.5664335664335665</v>
       </c>
     </row>
     <row r="65">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.2757242757242757</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="67">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.06393606393606394</v>
+        <v>0.08291708291708291</v>
       </c>
     </row>
     <row r="85">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>9.436353815006626e-07</v>
+        <v>9.436353817227072e-07</v>
       </c>
     </row>
     <row r="93">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.3112203730524644</v>
+        <v>0.3112203730524643</v>
       </c>
     </row>
     <row r="95">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.4125874125874126</v>
+        <v>0.4305694305694306</v>
       </c>
     </row>
     <row r="103">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.4775224775224775</v>
+        <v>0.4415584415584415</v>
       </c>
     </row>
     <row r="104">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.3726273726273726</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="105">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.2577422577422577</v>
+        <v>0.2457542457542458</v>
       </c>
     </row>
     <row r="106">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.3576423576423576</v>
+        <v>0.3476523476523476</v>
       </c>
     </row>
     <row r="107">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.02997002997002997</v>
       </c>
     </row>
     <row r="123">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.2317682317682318</v>
+        <v>0.2167832167832168</v>
       </c>
     </row>
     <row r="124">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.3676323676323676</v>
+        <v>0.3756243756243756</v>
       </c>
     </row>
     <row r="125">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.006993006993006993</v>
       </c>
     </row>
     <row r="126">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.02097902097902098</v>
+        <v>0.01698301698301698</v>
       </c>
     </row>
     <row r="127">
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.004523816040784667</v>
+        <v>0.004523816040785111</v>
       </c>
     </row>
     <row r="133">
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.1498957763688196</v>
+        <v>0.1498957763688197</v>
       </c>
     </row>
     <row r="134">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.02328618390033743</v>
+        <v>0.02328618390033799</v>
       </c>
     </row>
     <row r="137">
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.06393606393606394</v>
+        <v>0.05994005994005994</v>
       </c>
     </row>
     <row r="143">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.02697302697302697</v>
+        <v>0.03196803196803197</v>
       </c>
     </row>
     <row r="144">
@@ -4180,7 +4180,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.3336663336663337</v>
+        <v>0.3086913086913087</v>
       </c>
     </row>
     <row r="145">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.01598401598401598</v>
       </c>
     </row>
     <row r="146">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.06893106893106893</v>
+        <v>0.07292707292707293</v>
       </c>
     </row>
     <row r="147">
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.02332817845416735</v>
+        <v>0.0233281784541669</v>
       </c>
     </row>
     <row r="154">
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.04795204795204795</v>
+        <v>0.05794205794205794</v>
       </c>
     </row>
     <row r="163">
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.02397602397602398</v>
+        <v>0.03296703296703297</v>
       </c>
     </row>
     <row r="164">
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.02097902097902098</v>
       </c>
     </row>
     <row r="165">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.1088911088911089</v>
+        <v>0.08691308691308691</v>
       </c>
     </row>
     <row r="166">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.05094905094905095</v>
+        <v>0.05194805194805195</v>
       </c>
     </row>
     <row r="167">
@@ -4934,7 +4934,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.08041604217813514</v>
+        <v>0.08041604217813469</v>
       </c>
     </row>
     <row r="174">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00999000999000999</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="184">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.01798201798201798</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.1228771228771229</v>
+        <v>0.1028971028971029</v>
       </c>
     </row>
     <row r="186">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.1628371628371628</v>
+        <v>0.1708291708291708</v>
       </c>
     </row>
     <row r="187">
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.07037774599087132</v>
+        <v>0.0703777459908711</v>
       </c>
     </row>
     <row r="194">
